--- a/patient_data/patient_99.xlsx
+++ b/patient_data/patient_99.xlsx
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1102,28 +1102,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>1</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1179,28 +1179,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>1</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1552,13 +1552,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -1629,13 +1629,13 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -2396,19 +2396,19 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
